--- a/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/workstationChangeoverNormImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/workstationChangeoverNormImportSchema_pl.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C94D5-8E8E-48F3-AD00-C3E87732F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Normy przezbrojeń SR - import" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>qcadoo MES</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -29,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -90,13 +100,13 @@
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t>qcadoo MES:
-Dana wymagana. Do wyboru: 
-- dowolna zmiana,
+Dana wymagana. Do wyboru: _x000D_
+- dowolna zmiana,_x000D_
 - między konkretnymi wartościami.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Nazwa przezbrojenia</t>
   </si>
@@ -184,14 +194,26 @@
   <si>
     <t>Równolegle</t>
   </si>
+  <si>
+    <t>dowolna zmiana</t>
+  </si>
+  <si>
+    <t>między konkretnymi wartościami</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>T/N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -199,25 +221,32 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -234,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -242,103 +271,385 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+        <charset val="238"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{5BB87065-910F-4023-BA40-95C407776F48}">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{001B1B35-4F46-4B6F-BA56-42CB378D58EE}" name="Tabela1" displayName="Tabela1" ref="A1:J2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:J2" xr:uid="{001B1B35-4F46-4B6F-BA56-42CB378D58EE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{841137CB-CDBD-4FF2-BAB2-C525754EC31C}" name="Nazwa przezbrojenia" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{742429C8-EB57-49EF-B4E1-E6FBFA24C6DF}" name="Opis" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{86A0198E-F696-4C19-8769-2C08D76D2755}" name="Typ stacji roboczej" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F4AC7BDB-58E4-4FBE-B203-681729A02E35}" name="Stacja robocza" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{5683039A-054D-4F74-A755-56ADFDDE92E9}" name="Atrybut produktu" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{ECB78735-78C8-4A63-BD88-26B6783B53A8}" name="Rodzaj zmiany" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{FAA6717C-C90A-47F9-AFA8-D5F3293AB7B0}" name="Z wartości" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{C78DBC5E-0788-4226-B216-CA8D61B1BD7E}" name="Na wartość" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{5D106F82-087D-4435-B7D8-7A3F033EAB2E}" name="Czas przezbrojenia" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{3D5A7892-A9C9-4AF4-A2F1-F0EC9E63076E}" name="Równolegle" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6EC23C6-B243-4176-AC88-8EF66FF98662}" name="Tabela2" displayName="Tabela2" ref="C1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="C1:C3" xr:uid="{F6EC23C6-B243-4176-AC88-8EF66FF98662}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0721ACDA-2973-4939-A32F-DFCDBE563F57}" name="T/N" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53B772CC-F1A2-4AD8-A858-40B8EAC174AA}" name="Tabela3" displayName="Tabela3" ref="A1:A3" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:A3" xr:uid="{53B772CC-F1A2-4AD8-A858-40B8EAC174AA}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{754195FC-97FE-4E7F-B0AD-1ABF4718B6D5}" name="Rodzaj zmiany" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -540,7 +851,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -559,7 +870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -693,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,9 +1121,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -829,7 +1146,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -848,7 +1165,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,9 +1412,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1111,7 +1434,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1130,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1639,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1665,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1368,7 +1691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,69 +1704,83 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.8516" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8516" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.8516" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="16.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1451,748 +1788,816 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" ht="16" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6FE004E-B249-470A-B27D-F08301B85093}">
+          <x14:formula1>
+            <xm:f>Lista!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{873A4552-112D-409A-9700-6805617F3680}">
+          <x14:formula1>
+            <xm:f>Lista!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF069AF-CB8A-4F09-9098-C36A948468AD}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>